--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE7FCBE-49A7-7D43-8077-A744734114A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461CD82-410A-B24E-9B60-800B83DBD47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="9840" windowWidth="37620" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
   <si>
     <t>DOI</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Relative gene expression</t>
   </si>
   <si>
-    <t>Relative cleavage of probes</t>
-  </si>
-  <si>
     <t>Anti-SP IgG titre</t>
   </si>
   <si>
@@ -203,13 +200,103 @@
   </si>
   <si>
     <t>RPKM</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Radiant flux</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Stiffness</t>
+  </si>
+  <si>
+    <t>Protein amount</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
+  </si>
+  <si>
+    <t>Relative cleavage rate of probes</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Radiant efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +310,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -266,17 +361,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,15 +690,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F30" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +717,23 @@
       <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -621,8 +749,23 @@
       <c r="E2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -638,8 +781,23 @@
       <c r="E3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -655,8 +813,23 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -672,8 +845,23 @@
       <c r="E5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -689,8 +877,23 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -706,8 +909,23 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -723,8 +941,23 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -740,8 +973,23 @@
       <c r="E9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -757,8 +1005,23 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -774,8 +1037,23 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -791,8 +1069,23 @@
       <c r="E12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -808,8 +1101,23 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -825,8 +1133,23 @@
       <c r="E14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -842,8 +1165,23 @@
       <c r="E15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -859,8 +1197,23 @@
       <c r="E16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -876,8 +1229,23 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -893,8 +1261,23 @@
       <c r="E18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -908,10 +1291,25 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -925,10 +1323,25 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -942,10 +1355,25 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -959,10 +1387,25 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -976,10 +1419,25 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -993,10 +1451,25 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1010,10 +1483,25 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1027,10 +1515,25 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1044,10 +1547,25 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1061,10 +1579,25 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1078,10 +1611,25 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1095,10 +1643,25 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1112,10 +1675,25 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1129,10 +1707,25 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1146,10 +1739,25 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1163,10 +1771,25 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1180,10 +1803,25 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1197,10 +1835,25 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1214,10 +1867,25 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1231,10 +1899,25 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1248,10 +1931,25 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1265,10 +1963,25 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1282,10 +1995,25 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1299,10 +2027,25 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +2059,22 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461CD82-410A-B24E-9B60-800B83DBD47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150762B2-2CF4-0A46-AB55-F339737E37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="9840" windowWidth="37620" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="133">
   <si>
     <t>DOI</t>
   </si>
@@ -290,6 +290,135 @@
   </si>
   <si>
     <t>Radiant efficiency</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01001-1_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01001-1_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01011-7_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01011-7_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01014-4_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01014-4_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01028-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01030-4_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01033-1_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01037-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01037-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01054-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01065-7_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01065-7_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01069-3_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01071-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01072-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01112-3_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01112-3_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01112-3_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01116-z_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01131-0_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01133-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01143-w_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01146-7_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01146-7_log_fig2</t>
   </si>
 </sst>
 </file>
@@ -690,70 +819,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F30" sqref="F29:F30"/>
+      <selection activeCell="A23" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
@@ -762,30 +894,33 @@
         <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>67</v>
@@ -794,30 +929,33 @@
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>67</v>
@@ -826,30 +964,33 @@
         <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>67</v>
@@ -858,190 +999,208 @@
         <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>74</v>
       </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
         <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
         <v>77</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>89</v>
       </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -1050,126 +1209,138 @@
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>83</v>
       </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
         <v>80</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
       </c>
       <c r="H15" t="s">
         <v>72</v>
@@ -1178,30 +1349,33 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
       </c>
       <c r="H16" t="s">
         <v>72</v>
@@ -1210,94 +1384,103 @@
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
         <v>84</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>67</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
       </c>
       <c r="I18" t="s">
         <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -1306,414 +1489,453 @@
         <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
         <v>73</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="J20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" t="s">
         <v>73</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>71</v>
       </c>
-      <c r="J21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
         <v>73</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>71</v>
       </c>
-      <c r="J22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
         <v>73</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>71</v>
       </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
       </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
         <v>73</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>71</v>
       </c>
-      <c r="J24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
         <v>73</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
         <v>73</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>71</v>
       </c>
-      <c r="J26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
       <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
         <v>52</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>79</v>
       </c>
-      <c r="J27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>66</v>
       </c>
-      <c r="G28" t="s">
-        <v>69</v>
-      </c>
       <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
         <v>52</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>79</v>
       </c>
-      <c r="J28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>66</v>
       </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
       <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
         <v>52</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>79</v>
       </c>
-      <c r="J29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
       </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
         <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>54</v>
       </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
         <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>66</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>67</v>
@@ -1722,358 +1944,394 @@
         <v>67</v>
       </c>
       <c r="J32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
         <v>59</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>74</v>
       </c>
-      <c r="J33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
         <v>59</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>74</v>
       </c>
-      <c r="J34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>56</v>
       </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
         <v>70</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>71</v>
       </c>
-      <c r="J35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>56</v>
       </c>
-      <c r="F36" t="s">
-        <v>68</v>
-      </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
         <v>70</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>71</v>
       </c>
-      <c r="J36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>22</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>57</v>
       </c>
-      <c r="F37" t="s">
-        <v>68</v>
-      </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
         <v>77</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>76</v>
       </c>
-      <c r="J37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
-        <v>68</v>
-      </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
         <v>70</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>71</v>
       </c>
-      <c r="J38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>56</v>
       </c>
-      <c r="F39" t="s">
-        <v>68</v>
-      </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
         <v>70</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>71</v>
       </c>
-      <c r="J39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>56</v>
       </c>
-      <c r="F40" t="s">
-        <v>68</v>
-      </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
         <v>70</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>71</v>
       </c>
-      <c r="J40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>56</v>
       </c>
-      <c r="F41" t="s">
-        <v>68</v>
-      </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
         <v>70</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>71</v>
       </c>
-      <c r="J41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" t="s">
-        <v>68</v>
-      </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
         <v>75</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>74</v>
       </c>
-      <c r="J42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="K42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>58</v>
       </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
         <v>75</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>74</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>65</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150762B2-2CF4-0A46-AB55-F339737E37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C0BBC-0395-CF46-B70C-C78CB8124209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="9840" windowWidth="37620" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="131">
   <si>
     <t>DOI</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Stiffness</t>
   </si>
   <si>
-    <t>Protein amount</t>
-  </si>
-  <si>
     <t>RNA count</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>Amplitude</t>
-  </si>
-  <si>
     <t>Potential</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>Relative cleavage rate of probes</t>
   </si>
   <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>Radiant efficiency</t>
   </si>
   <si>
@@ -419,6 +410,9 @@
   </si>
   <si>
     <t>10.1038:s41551-023-01146-7_log_fig2</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -821,18 +815,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="187" workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="187" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -867,7 +863,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -902,7 +898,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -937,7 +933,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -972,7 +968,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1007,7 +1003,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1031,7 +1027,7 @@
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -1042,7 +1038,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1066,7 +1062,7 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -1077,7 +1073,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1112,7 +1108,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1139,7 +1135,7 @@
         <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>
@@ -1147,7 +1143,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1182,7 +1178,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1217,7 +1213,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1238,13 +1234,13 @@
         <v>66</v>
       </c>
       <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
@@ -1252,7 +1248,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1311,7 +1307,7 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -1322,7 +1318,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1357,7 +1353,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1392,7 +1388,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1416,10 +1412,10 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
         <v>65</v>
@@ -1427,7 +1423,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1451,10 +1447,10 @@
         <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
         <v>65</v>
@@ -1462,7 +1458,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1477,19 +1473,19 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
         <v>65</v>
@@ -1497,7 +1493,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1532,7 +1528,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1567,7 +1563,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1602,7 +1598,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1637,7 +1633,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1672,7 +1668,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1707,7 +1703,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1742,7 +1738,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1769,7 +1765,7 @@
         <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
         <v>65</v>
@@ -1777,7 +1773,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1804,7 +1800,7 @@
         <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s">
         <v>65</v>
@@ -1812,7 +1808,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1839,7 +1835,7 @@
         <v>52</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
         <v>65</v>
@@ -1847,7 +1843,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1874,7 +1870,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
         <v>65</v>
@@ -1882,7 +1878,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1917,7 +1913,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1952,7 +1948,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1987,7 +1983,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -2022,7 +2018,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2057,7 +2053,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2092,7 +2088,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2127,7 +2123,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2162,7 +2158,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2197,7 +2193,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2232,7 +2228,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2267,7 +2263,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2302,7 +2298,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C0BBC-0395-CF46-B70C-C78CB8124209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893885B-538D-BD43-9593-0048BC96F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="187" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:J29"/>
+    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="187" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1132,10 +1132,10 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
         <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>86</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>
@@ -1237,10 +1237,10 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
         <v>81</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
@@ -2112,10 +2112,10 @@
         <v>69</v>
       </c>
       <c r="I37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s">
         <v>77</v>
-      </c>
-      <c r="J37" t="s">
-        <v>76</v>
       </c>
       <c r="K37" t="s">
         <v>65</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893885B-538D-BD43-9593-0048BC96F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E65E4-5297-894B-9D21-2FCC6D7E753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="128">
   <si>
     <t>DOI</t>
   </si>
@@ -256,12 +256,6 @@
     <t>Bioluminescence</t>
   </si>
   <si>
-    <t>Stiffness</t>
-  </si>
-  <si>
-    <t>RNA count</t>
-  </si>
-  <si>
     <t>Calculated value</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
   </si>
   <si>
     <t>Potential</t>
-  </si>
-  <si>
-    <t>Relative expression</t>
   </si>
   <si>
     <t>Relative cleavage rate of probes</t>
@@ -815,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="187" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="187" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -863,7 +854,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -898,7 +889,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -933,7 +924,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -968,7 +959,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1003,7 +994,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1027,7 +1018,7 @@
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -1038,7 +1029,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1062,7 +1053,7 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -1073,7 +1064,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1108,7 +1099,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1132,7 +1123,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -1143,7 +1134,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1178,7 +1169,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1213,7 +1204,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1234,13 +1225,13 @@
         <v>66</v>
       </c>
       <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
         <v>80</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
@@ -1248,7 +1239,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1283,7 +1274,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1307,7 +1298,7 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -1318,7 +1309,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1353,7 +1344,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1388,7 +1379,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1412,10 +1403,10 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s">
         <v>65</v>
@@ -1423,7 +1414,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1447,10 +1438,10 @@
         <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
         <v>65</v>
@@ -1458,7 +1449,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1473,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
@@ -1493,7 +1484,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1528,7 +1519,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1563,7 +1554,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1598,7 +1589,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1633,7 +1624,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1668,7 +1659,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1703,7 +1694,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1738,7 +1729,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1762,10 +1753,10 @@
         <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s">
         <v>65</v>
@@ -1773,7 +1764,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1797,10 +1788,10 @@
         <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s">
         <v>65</v>
@@ -1808,7 +1799,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1832,10 +1823,10 @@
         <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s">
         <v>65</v>
@@ -1843,7 +1834,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1867,10 +1858,10 @@
         <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
         <v>65</v>
@@ -1878,7 +1869,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1913,7 +1904,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1948,7 +1939,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1972,7 +1963,7 @@
         <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
         <v>74</v>
@@ -1983,7 +1974,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -2007,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s">
         <v>74</v>
@@ -2018,7 +2009,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2053,7 +2044,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2088,7 +2079,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2123,7 +2114,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2158,7 +2149,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2193,7 +2184,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2228,7 +2219,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2263,7 +2254,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2298,7 +2289,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E65E4-5297-894B-9D21-2FCC6D7E753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03B87E-4518-074C-B497-4B88C155EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="130">
   <si>
     <t>DOI</t>
   </si>
@@ -139,9 +139,6 @@
     <t>ZIKV RNA (copies/g)</t>
   </si>
   <si>
-    <t>nLuc equivalent (nM)</t>
-  </si>
-  <si>
     <t>Radiance (p/s/cm2/sr)</t>
   </si>
   <si>
@@ -404,6 +401,15 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01023-3_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01023-3</t>
+  </si>
+  <si>
+    <t>Fold enrichment</t>
   </si>
 </sst>
 </file>
@@ -804,14 +810,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="187" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:I34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
@@ -819,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -837,24 +844,24 @@
         <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -872,24 +879,24 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -907,24 +914,24 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>66</v>
       </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -942,24 +949,24 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -977,24 +984,24 @@
         <v>37</v>
       </c>
       <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1012,24 +1019,24 @@
         <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1047,27 +1054,27 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1079,30 +1086,30 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1114,30 +1121,30 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1149,30 +1156,30 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1184,27 +1191,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1213,71 +1220,71 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1289,30 +1296,30 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1324,27 +1331,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1353,71 +1360,71 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1429,30 +1436,30 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1464,30 +1471,30 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1499,27 +1506,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
         <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1528,33 +1535,33 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1563,33 +1570,33 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1598,33 +1605,33 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1633,33 +1640,33 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1668,33 +1675,33 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1703,68 +1710,68 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1773,33 +1780,33 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1808,71 +1815,71 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1884,30 +1891,30 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1919,30 +1926,30 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1954,27 +1961,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -1983,68 +1990,68 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2053,33 +2060,33 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" t="s">
         <v>69</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>70</v>
       </c>
-      <c r="J36" t="s">
-        <v>71</v>
-      </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2088,33 +2095,33 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" t="s">
         <v>69</v>
       </c>
-      <c r="I37" t="s">
-        <v>76</v>
-      </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2123,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -2132,24 +2139,24 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2158,33 +2165,33 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
         <v>69</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>70</v>
       </c>
-      <c r="J39" t="s">
-        <v>71</v>
-      </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2193,33 +2200,33 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s">
         <v>69</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>70</v>
       </c>
-      <c r="J40" t="s">
-        <v>71</v>
-      </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2228,68 +2235,68 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
         <v>69</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>70</v>
       </c>
-      <c r="J41" t="s">
-        <v>71</v>
-      </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" t="s">
         <v>69</v>
       </c>
-      <c r="I42" t="s">
-        <v>75</v>
-      </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2298,28 +2305,63 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
         <v>74</v>
       </c>
-      <c r="K43" t="s">
-        <v>65</v>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03B87E-4518-074C-B497-4B88C155EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77DF59-ADBE-8942-8B5B-7CE88691C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>10.1038:s41551-023-01146-7</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Colorimetric p-LFA SNR</t>
   </si>
   <si>
@@ -205,12 +202,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -410,6 +401,15 @@
   </si>
   <si>
     <t>Fold enrichment</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -826,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -841,27 +841,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -876,27 +876,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -911,27 +911,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -946,27 +946,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -981,27 +981,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1016,27 +1016,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1051,30 +1051,30 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1086,27 +1086,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1121,27 +1121,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1156,27 +1156,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1191,27 +1191,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1226,27 +1226,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1261,27 +1261,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1296,19 +1296,19 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1331,27 +1331,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1366,27 +1366,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1401,27 +1401,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1436,27 +1436,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1471,27 +1471,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1506,27 +1506,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1541,27 +1541,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="H21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s">
-        <v>70</v>
-      </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1576,27 +1576,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
         <v>67</v>
       </c>
-      <c r="H22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s">
-        <v>70</v>
-      </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1611,27 +1611,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
-      </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1646,27 +1646,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
         <v>67</v>
       </c>
-      <c r="H24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" t="s">
-        <v>70</v>
-      </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1681,27 +1681,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" t="s">
         <v>67</v>
       </c>
-      <c r="H25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" t="s">
-        <v>70</v>
-      </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1716,27 +1716,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
         <v>67</v>
       </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" t="s">
-        <v>70</v>
-      </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1751,27 +1751,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
         <v>67</v>
       </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" t="s">
-        <v>70</v>
-      </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1786,27 +1786,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1821,27 +1821,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -1856,27 +1856,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -1891,27 +1891,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -1926,27 +1926,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" t="s">
         <v>67</v>
       </c>
-      <c r="H32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" t="s">
-        <v>70</v>
-      </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -1961,27 +1961,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -1996,27 +1996,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -2031,27 +2031,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2066,27 +2066,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
         <v>67</v>
       </c>
-      <c r="H36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" t="s">
-        <v>69</v>
-      </c>
-      <c r="J36" t="s">
-        <v>70</v>
-      </c>
       <c r="K36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2101,27 +2101,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
         <v>67</v>
       </c>
-      <c r="H37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" t="s">
-        <v>70</v>
-      </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2136,27 +2136,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2171,27 +2171,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
         <v>67</v>
       </c>
-      <c r="H39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J39" t="s">
-        <v>70</v>
-      </c>
       <c r="K39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2206,27 +2206,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
         <v>67</v>
       </c>
-      <c r="H40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J40" t="s">
-        <v>70</v>
-      </c>
       <c r="K40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2241,27 +2241,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
         <v>67</v>
       </c>
-      <c r="H41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" t="s">
-        <v>70</v>
-      </c>
       <c r="K41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
@@ -2276,27 +2276,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J42" t="s">
-        <v>70</v>
-      </c>
       <c r="K42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2311,27 +2311,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2346,22 +2346,22 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
